--- a/biology/Botanique/Trachelospermum/Trachelospermum.xlsx
+++ b/biology/Botanique/Trachelospermum/Trachelospermum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trachelospermum est un genre de plantes à fleurs de la famille des Apocynaceae, d'origine asiatique.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme Trachelospermum est composé des étymons grecs trachelos τραχελος « col », et sperma σπερμα « semence, graine », allusion à la forme des graines, allongé-rétrécies au sommet et terminées par une aigrette.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Trachelospermum sont des lianes ligneuses, exsudant un latex blanc[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Trachelospermum sont des lianes ligneuses, exsudant un latex blanc.
 Les feuilles sont simples et opposées.
 Les fleurs actinomorphes, blanches ou pourprées, 5-mères, sont groupées en cymes. Le calice est petit et porte à la base 5-10 glandes. La corolle est formée d'un tube cylindrique, dilaté au niveau d'insertion des étamines, terminé par 5 lobes. Les 5 étamines sont insérées au niveau du tiers inférieur du tube de la corolle ; les anthères sont sagittées, connées (soudées), adhérentes à la tête du pistil. Le réceptacle forme un disque nectarifère à 5 écailles. Le gynécée est réduit à deux carpelles libres. Les graines linaires-oblongues portent une aigrette blanche. Les cotylédons sont linaires, plats.
 </t>
@@ -575,10 +591,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le genre comporte environ 15 espèces[n 1].
-Le Catalogue of Life[2], répertorie les espèces suivantes[3] :
+Le Catalogue of Life, répertorie les espèces suivantes :
 Trachelospermum asiaticum (Siebold &amp; Zuccarini) Nakai
 Trachelospermum assamense R.E. Woodson
 Trachelospermum axillare J. D. Hooker
